--- a/biology/Médecine/Saw_Sa/Saw_Sa.xlsx
+++ b/biology/Médecine/Saw_Sa/Saw_Sa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saw Sa (en birman : စောဆ, à prononcer [sɔ́ sʰa̰]), également connue sous les noms de Saw Hsa, Ma Saw Sa, Daw Saw Sa, née le 1er août 1884, morte le 28 février 1962, était médecin, sage-femme, administratrice d'hôpital, missionnaire chrétienne, suffragiste, sénatrice et fonctionnaire birmane. 
 La docteure Saw Sa a été la première femme birmane à obtenir un diplôme de haut niveau en médecine, et la première femme à siéger à la chambre haute du parlement colonial. Elle était membre de l'ordre de l'Empire britannique.
@@ -514,15 +526,90 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse
-Saw Sa était la fille de parents chrétiens birmans[1]. Son père Po Saw était un fonctionnaire du gouvernement (wundauk) de Prome[2]. Elle a été la première femme à obtenir son diplôme du Judson College, géré par les baptistes, à Rangoun, en Birmanie britannique. Elle a reçu une bourse missionnaire pour aller étudier à la faculté de médecine de Calcutta[3], où elle est devenue la première femme birmane à obtenir une licence médicale, en 1911[4]. Elle a poursuivi sa formation en santé publique au Collège royal des médecins et chirurgiens de Dublin, en Irlande, où elle a été la première étudiante birmane à obtenir une bourse[5].
-Carrière médicale et activités de mission
-Saw Sa aurait été la seule femme médecin de Birmanie à son retour à Rangoun en 1913. De 1914 à 1921, elle était surintendante de la maternité Lady Dufferin à Rangoun. Sa sœur et ses cousins faisaient partie des infirmières de l'hôpital[6]. Elle a publié un manuel, Midwifery (1921)[7]. Après 1921, elle avait un cabinet médical privé à Rangoun[8], et dirigeait un hôpital de charité. Pendant la Seconde Guerre mondiale, elle a soigné les victimes de la guerre[9].
-En 1921, Saw Sa voyagea aux États-Unis. Elle a assisté au rassemblement de la Woman's American Baptist Foreign Missionary Society à Des Moines, dans l'Iowa[10], représentant le travail de l'organisation en Inde et en Birmanie[3],[5]. Les congressistes lui ont donné une « avalanche de livres » d'environ 800 volumes en anglais et des abonnements à des magazines à rapporter aux élèves de l'école de la mission à Rangoun[11]. Elle a siégé au Conseil missionnaire international lors de sa réunion à Lake Mohonk, à New York[12]. Elle a poursuivi ses études en médecine à l'université Johns-Hopkins[13],[14]. Elle aurait été la première femme birmane à faire un tour du monde[15].
-Politique
-Saw Sa a siégé au comité exécutif de la All-Burma Baptist Woman's Missionary Society, dès la formation de ce comité en 1926[8]. En 1927, elle a siégé au comité local de Birmanie du septième congrès de l'Association d'Extrême-Orient de médecine tropicale[16]. En 1934, elle a parlé en faveur du suffrage des femmes mariées en Birmanie, au Women's Freedom League Club à Londres[17], pendant qu'elle était déléguée aux réunions sur la séparation administrative de la Birmanie de l'Inde sous la domination coloniale britannique[18],[19]. « Nous revendiquons le droit de vote pour les épouses de tous les hommes qui votent sur d'autres qualifications », a-t-elle déclaré, ajoutant « Sur le principe de l'égalité de statut avec les hommes, nous ne sommes pas du tout favorables à ce que des sièges soient réservés aux femmes »[20]. En 1937, Saw Sa fut élue à la chambre haute du Sénat birman, elle était la première femme membre de cette assemblée parlementaire[9],[21].
-La docteure Saw Sa reçoit la distinction de membre de l'ordre de l'Empire britannique le 3 juin 1935[22].
-Saw Sa meurt le 28 février 1962 ; elle avait 77 ans[9].
+          <t>Jeunesse</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saw Sa était la fille de parents chrétiens birmans. Son père Po Saw était un fonctionnaire du gouvernement (wundauk) de Prome. Elle a été la première femme à obtenir son diplôme du Judson College, géré par les baptistes, à Rangoun, en Birmanie britannique. Elle a reçu une bourse missionnaire pour aller étudier à la faculté de médecine de Calcutta, où elle est devenue la première femme birmane à obtenir une licence médicale, en 1911. Elle a poursuivi sa formation en santé publique au Collège royal des médecins et chirurgiens de Dublin, en Irlande, où elle a été la première étudiante birmane à obtenir une bourse.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Saw_Sa</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saw_Sa</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière médicale et activités de mission</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saw Sa aurait été la seule femme médecin de Birmanie à son retour à Rangoun en 1913. De 1914 à 1921, elle était surintendante de la maternité Lady Dufferin à Rangoun. Sa sœur et ses cousins faisaient partie des infirmières de l'hôpital. Elle a publié un manuel, Midwifery (1921). Après 1921, elle avait un cabinet médical privé à Rangoun, et dirigeait un hôpital de charité. Pendant la Seconde Guerre mondiale, elle a soigné les victimes de la guerre.
+En 1921, Saw Sa voyagea aux États-Unis. Elle a assisté au rassemblement de la Woman's American Baptist Foreign Missionary Society à Des Moines, dans l'Iowa, représentant le travail de l'organisation en Inde et en Birmanie,. Les congressistes lui ont donné une « avalanche de livres » d'environ 800 volumes en anglais et des abonnements à des magazines à rapporter aux élèves de l'école de la mission à Rangoun. Elle a siégé au Conseil missionnaire international lors de sa réunion à Lake Mohonk, à New York. Elle a poursuivi ses études en médecine à l'université Johns-Hopkins,. Elle aurait été la première femme birmane à faire un tour du monde.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Saw_Sa</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saw_Sa</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Politique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saw Sa a siégé au comité exécutif de la All-Burma Baptist Woman's Missionary Society, dès la formation de ce comité en 1926. En 1927, elle a siégé au comité local de Birmanie du septième congrès de l'Association d'Extrême-Orient de médecine tropicale. En 1934, elle a parlé en faveur du suffrage des femmes mariées en Birmanie, au Women's Freedom League Club à Londres, pendant qu'elle était déléguée aux réunions sur la séparation administrative de la Birmanie de l'Inde sous la domination coloniale britannique,. « Nous revendiquons le droit de vote pour les épouses de tous les hommes qui votent sur d'autres qualifications », a-t-elle déclaré, ajoutant « Sur le principe de l'égalité de statut avec les hommes, nous ne sommes pas du tout favorables à ce que des sièges soient réservés aux femmes ». En 1937, Saw Sa fut élue à la chambre haute du Sénat birman, elle était la première femme membre de cette assemblée parlementaire,.
+La docteure Saw Sa reçoit la distinction de membre de l'ordre de l'Empire britannique le 3 juin 1935.
+Saw Sa meurt le 28 février 1962 ; elle avait 77 ans.
 </t>
         </is>
       </c>
